--- a/experiments/capital/bert-base-uncased_15/42/word_level_error_type_summary.xlsx
+++ b/experiments/capital/bert-base-uncased_15/42/word_level_error_type_summary.xlsx
@@ -443,41 +443,41 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
